--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2704349.432697118</v>
+        <v>2698609.317988902</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359932</v>
+        <v>6663746.095359937</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.88270951</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>296.3420890413824</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>326.8617025836456</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958793</v>
+        <v>162.9947207958797</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>29.0358385568041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>49.51733968950283</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.1008931508062</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>121.3842648627956</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>85.87067188268739</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.3153692344725</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>194.75361834577</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>301.0462453066048</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>94.63926978364032</v>
+        <v>142.6271181085172</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>378.9357972952567</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>287.840521731015</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>110.2526535426571</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>132.997194893274</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>44.50542925786726</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>153.8460252842332</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.5674611446723</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>13.89072837997169</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>28.87187436015506</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>202.4425172951282</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247745</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>7.601081015446252</v>
+        <v>163.3834414290086</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4473819500907</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>113.2150989222328</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -2766,13 +2766,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>218.3376902057113</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.043187116398331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>236.672449263235</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.9951719589025</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3477,13 +3477,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>122.2718271853743</v>
+        <v>82.55485809114292</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247554</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>120.6353666620221</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>239.9115438999869</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>112.7390399452111</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>96.06638169428761</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>82.55485809114292</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>229.9332959916827</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1729.618774291863</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="C2" t="n">
-        <v>1729.618774291863</v>
+        <v>1996.488793744572</v>
       </c>
       <c r="D2" t="n">
-        <v>1371.353075685113</v>
+        <v>1638.223095137822</v>
       </c>
       <c r="E2" t="n">
-        <v>1371.353075685113</v>
+        <v>1252.434842539578</v>
       </c>
       <c r="F2" t="n">
-        <v>960.3671708955053</v>
+        <v>841.4489377499701</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738261</v>
+        <v>542.1134942738263</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307497</v>
+        <v>211.9501583307499</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369988</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015914</v>
+        <v>138.9642385015907</v>
       </c>
       <c r="K2" t="n">
-        <v>397.076446806072</v>
+        <v>397.0764468060704</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927213</v>
+        <v>769.5640925927182</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689016</v>
+        <v>1200.634914689011</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811685</v>
+        <v>1624.048915811679</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633677</v>
+        <v>1978.679112633669</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054138</v>
+        <v>2243.673398054128</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684994</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684994</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684994</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="T2" t="n">
-        <v>2145.547744211343</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="U2" t="n">
-        <v>2145.547744211343</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="V2" t="n">
-        <v>2145.547744211343</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="W2" t="n">
-        <v>2145.547744211343</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="X2" t="n">
-        <v>2145.547744211343</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="Y2" t="n">
-        <v>2116.218614355985</v>
+        <v>2365.451310684984</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>864.551199357436</v>
+        <v>931.6772639360072</v>
       </c>
       <c r="C3" t="n">
-        <v>690.098170076309</v>
+        <v>757.2242346548802</v>
       </c>
       <c r="D3" t="n">
-        <v>541.1637604150577</v>
+        <v>608.2898249936289</v>
       </c>
       <c r="E3" t="n">
-        <v>381.9263054096022</v>
+        <v>449.0523699881734</v>
       </c>
       <c r="F3" t="n">
-        <v>235.3917474364872</v>
+        <v>302.5178120150584</v>
       </c>
       <c r="G3" t="n">
-        <v>97.32654105158153</v>
+        <v>164.4526056301528</v>
       </c>
       <c r="H3" t="n">
-        <v>47.30902621369988</v>
+        <v>57.5119485882514</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369988</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683012</v>
+        <v>52.12709798582475</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138135</v>
+        <v>282.8286256313363</v>
       </c>
       <c r="L3" t="n">
-        <v>710.5174612568467</v>
+        <v>654.4396961743685</v>
       </c>
       <c r="M3" t="n">
-        <v>1196.149274459036</v>
+        <v>1140.071509376557</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.341330101585</v>
+        <v>1654.263565019104</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119905</v>
+        <v>2058.233162108976</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695915</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684994</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.451310684994</v>
+        <v>2365.451310684984</v>
       </c>
       <c r="S3" t="n">
-        <v>2365.451310684994</v>
+        <v>2204.397547725775</v>
       </c>
       <c r="T3" t="n">
-        <v>2165.947627845725</v>
+        <v>2004.893864886506</v>
       </c>
       <c r="U3" t="n">
-        <v>1937.767800307935</v>
+        <v>2004.893864886506</v>
       </c>
       <c r="V3" t="n">
-        <v>1702.615692076192</v>
+        <v>1769.741756654764</v>
       </c>
       <c r="W3" t="n">
-        <v>1448.378335347991</v>
+        <v>1515.504399926562</v>
       </c>
       <c r="X3" t="n">
-        <v>1240.526835142458</v>
+        <v>1307.652899721029</v>
       </c>
       <c r="Y3" t="n">
-        <v>1032.766536377504</v>
+        <v>1099.892600956075</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>433.1906104243811</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="C4" t="n">
-        <v>433.1906104243811</v>
+        <v>492.2287067063389</v>
       </c>
       <c r="D4" t="n">
-        <v>433.1906104243811</v>
+        <v>342.1120672940032</v>
       </c>
       <c r="E4" t="n">
-        <v>433.1906104243811</v>
+        <v>194.1989737116101</v>
       </c>
       <c r="F4" t="n">
-        <v>433.1906104243811</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="G4" t="n">
-        <v>346.4525580176262</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="H4" t="n">
-        <v>187.5481446494722</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369988</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369988</v>
+        <v>47.30902621369968</v>
       </c>
       <c r="K4" t="n">
-        <v>88.8052941018163</v>
+        <v>88.80529410181566</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365668</v>
+        <v>197.4326649365656</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950608</v>
+        <v>322.3541198950588</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896755</v>
+        <v>449.7398382896729</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885946</v>
+        <v>551.3848716885915</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546209</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546209</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546209</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546209</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546209</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546209</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546209</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546209</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546209</v>
+        <v>614.8390752546173</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546209</v>
+        <v>614.8390752546173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1448.576038264086</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>1079.613521323674</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>1079.613521323674</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1079.613521323674</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F5" t="n">
-        <v>668.6276165340664</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>250.6638084322533</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.715370239897</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.576038264086</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>149.5382038240415</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5382038240415</v>
+        <v>348.1274173019095</v>
       </c>
       <c r="D7" t="n">
-        <v>149.5382038240415</v>
+        <v>198.0107778895738</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240415</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240415</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240415</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1268.68094731003</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="C8" t="n">
-        <v>1268.68094731003</v>
+        <v>1194.683768698139</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>836.4180700913882</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>450.629817493144</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2302.336936304455</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>1949.568281034341</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X8" t="n">
-        <v>1658.820279285841</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1268.68094731003</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.9658229629848</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>188.2835827226615</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>210.9658229629848</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.9658229629848</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5044,16 +5044,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5068,25 +5068,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>720.69789701373</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="C13" t="n">
-        <v>551.7617140858231</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D13" t="n">
-        <v>551.7617140858231</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5232,19 +5232,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230347</v>
+        <v>1800.943440565074</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.556111024461</v>
+        <v>1546.258952359187</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.1389409875</v>
+        <v>1256.841782322227</v>
       </c>
       <c r="X13" t="n">
-        <v>1123.1389409875</v>
+        <v>1256.841782322227</v>
       </c>
       <c r="Y13" t="n">
-        <v>902.3463618439697</v>
+        <v>1036.049203178697</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5293,7 +5293,7 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
         <v>4195.497197679678</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>688.4805750348107</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C16" t="n">
-        <v>519.5443921069038</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>519.5443921069038</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5469,19 +5469,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W16" t="n">
-        <v>909.2731541783409</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X16" t="n">
-        <v>909.2731541783409</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y16" t="n">
-        <v>688.4805750348107</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089261</v>
@@ -5518,16 +5518,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5570,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
@@ -5612,22 +5612,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,64 +5807,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1927.179956650002</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1705.413341219528</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1416.310474345171</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208122</v>
+        <v>1161.625986139284</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838516</v>
+        <v>872.2088161023238</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858343</v>
+        <v>644.2192652043065</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6068,13 +6068,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3092.649987000256</v>
+        <v>822.6299143867971</v>
       </c>
       <c r="C25" t="n">
-        <v>3084.972127388694</v>
+        <v>657.5961351655762</v>
       </c>
       <c r="D25" t="n">
-        <v>3084.972127388694</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E25" t="n">
-        <v>3084.972127388694</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F25" t="n">
-        <v>3084.972127388694</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763413</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763413</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>4556.285106989247</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>4267.18224011489</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V25" t="n">
-        <v>4012.497751909003</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W25" t="n">
-        <v>3723.080581872043</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X25" t="n">
-        <v>3495.091030974026</v>
+        <v>1225.070958360567</v>
       </c>
       <c r="Y25" t="n">
-        <v>3274.298451830496</v>
+        <v>1004.278379217037</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6229,49 +6229,49 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846824</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1120.662598458018</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
         <v>192.8867116300491</v>
@@ -6414,22 +6414,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1764.65758193153</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1475.240411894569</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1475.240411894569</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y28" t="n">
-        <v>1254.447832751039</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689405</v>
+        <v>728.5338801960603</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104703</v>
+        <v>1454.284003269148</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1454.284003269148</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.55611102446</v>
+        <v>1199.599515063261</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.138940987499</v>
+        <v>910.1823450263</v>
       </c>
       <c r="X31" t="n">
-        <v>895.1493900894816</v>
+        <v>910.1823450263</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.0653626991802</v>
+        <v>910.1823450263</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,28 +6779,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3773.43467184513</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>3773.43467184513</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>3623.318032432794</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>3475.404938850401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.514991352491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.051722419721</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>4556.285106989247</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>4267.18224011489</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>4012.497751909003</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>3773.43467184513</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>3773.43467184513</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y34" t="n">
-        <v>3773.43467184513</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="35">
@@ -6922,13 +6922,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,25 +6937,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>867.5397632725221</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1732.058578925877</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2265.590483597801</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2812.369300656583</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,28 +7016,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.657581931529</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1352.04781891033</v>
+        <v>1170.39935408009</v>
       </c>
       <c r="W37" t="n">
-        <v>1062.630648873369</v>
+        <v>880.9821840431298</v>
       </c>
       <c r="X37" t="n">
-        <v>834.6410979753522</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y37" t="n">
-        <v>613.848518831822</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7204,22 +7204,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3039.123196482627</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C40" t="n">
-        <v>3039.123196482627</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>3039.123196482627</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>3039.123196482627</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>3039.123196482627</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>4274.768765573601</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>3985.665898699244</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.981410493358</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>3441.564240456397</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="X40" t="n">
-        <v>3441.564240456397</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y40" t="n">
-        <v>3220.771661312867</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,19 +7411,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,13 +7490,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>578.4172407837245</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C43" t="n">
         <v>409.4810578558177</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1752.635190735755</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1463.532323861399</v>
+        <v>1356.023760072435</v>
       </c>
       <c r="V43" t="n">
-        <v>1208.847835655512</v>
+        <v>1101.339271866548</v>
       </c>
       <c r="W43" t="n">
-        <v>1208.847835655512</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="X43" t="n">
-        <v>980.8582847574944</v>
+        <v>811.9221018295875</v>
       </c>
       <c r="Y43" t="n">
-        <v>760.0657056139643</v>
+        <v>591.1295226860574</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>730.2297869963112</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C46" t="n">
-        <v>561.2936040684043</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>411.1769646560685</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
         <v>263.2638710736754</v>
@@ -7797,19 +7797,19 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1502.320996137176</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1247.636507931289</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W46" t="n">
-        <v>958.2193378943285</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X46" t="n">
-        <v>730.2297869963112</v>
+        <v>736.3813786917215</v>
       </c>
       <c r="Y46" t="n">
-        <v>730.2297869963112</v>
+        <v>515.5887995481913</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>69.44682818639284</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>183.0065697095056</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.86574532263823</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>251.1867816683982</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7011105564207</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L26" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>251.7982062376322</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.253057640027</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.907807245515869e-12</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>219.3344627260167</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>101.9285333887019</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>132.3658129213797</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>16.86650150189686</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>272.3211098256412</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>160.8971509712868</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.14213605696662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>159.6457400831816</v>
+        <v>3.863379669619235</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.38459823184655</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>32.20594910069845</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>1.211259070457857</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>214.5414662356964</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>49.85054907335604</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>129.8658161384537</v>
+        <v>169.5827852326851</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>45.39044159700612</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>46.61145443660408</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>106.8099093309581</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>190.1454565113253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>97.27712209079438</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>56.27854221393022</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782224.3205084838</v>
+        <v>782224.3205084839</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782224.3205084839</v>
+        <v>782224.3205084838</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>782224.3205084839</v>
+        <v>782224.3205084838</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782224.3205084838</v>
+        <v>782224.3205084839</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782224.3205084839</v>
+        <v>782224.3205084837</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782224.3205084839</v>
+        <v>782224.3205084838</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782224.3205084839</v>
+        <v>782224.3205084838</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914263</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914266</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="F2" t="n">
         <v>635330.859019173</v>
-      </c>
-      <c r="F2" t="n">
-        <v>635330.8590191731</v>
       </c>
       <c r="G2" t="n">
         <v>635330.8590191728</v>
       </c>
       <c r="H2" t="n">
-        <v>635330.8590191726</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="I2" t="n">
         <v>635330.8590191728</v>
@@ -26340,22 +26340,22 @@
         <v>635330.859019173</v>
       </c>
       <c r="K2" t="n">
-        <v>635330.8590191724</v>
+        <v>635330.859019173</v>
       </c>
       <c r="L2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="M2" t="n">
+        <v>635330.859019173</v>
+      </c>
+      <c r="N2" t="n">
+        <v>635330.8590191728</v>
+      </c>
+      <c r="O2" t="n">
+        <v>635330.8590191731</v>
+      </c>
+      <c r="P2" t="n">
         <v>635330.8590191727</v>
-      </c>
-      <c r="M2" t="n">
-        <v>635330.8590191725</v>
-      </c>
-      <c r="N2" t="n">
-        <v>635330.8590191726</v>
-      </c>
-      <c r="O2" t="n">
-        <v>635330.859019173</v>
-      </c>
-      <c r="P2" t="n">
-        <v>635330.859019173</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.684410649</v>
+        <v>493391.684410646</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446816</v>
+        <v>91792.63957447092</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832161</v>
+        <v>154726.5356832155</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220058</v>
+        <v>21342.09858220119</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760454</v>
+        <v>235704.9591760462</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630333</v>
+        <v>209922.4154630334</v>
       </c>
       <c r="D4" t="n">
         <v>209922.4154630333</v>
@@ -26429,37 +26429,37 @@
         <v>28561.83935289575</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="G4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289579</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="J4" t="n">
+        <v>28561.83935289576</v>
+      </c>
+      <c r="K4" t="n">
         <v>28561.83935289575</v>
       </c>
-      <c r="K4" t="n">
-        <v>28561.83935289579</v>
-      </c>
       <c r="L4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.8393528958</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289574</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140131</v>
+        <v>76261.10613140112</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26487,28 +26487,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148524.3338266692</v>
+        <v>-148524.333826667</v>
       </c>
       <c r="C6" t="n">
-        <v>272259.2827905157</v>
+        <v>272259.2827905128</v>
       </c>
       <c r="D6" t="n">
-        <v>364051.9223649842</v>
+        <v>364051.9223649839</v>
       </c>
       <c r="E6" t="n">
-        <v>-216991.9125808431</v>
+        <v>-217663.8674831009</v>
       </c>
       <c r="F6" t="n">
-        <v>510385.5014125637</v>
+        <v>509713.5465103056</v>
       </c>
       <c r="G6" t="n">
-        <v>510385.5014125634</v>
+        <v>509713.5465103055</v>
       </c>
       <c r="H6" t="n">
-        <v>510385.5014125634</v>
+        <v>509713.5465103055</v>
       </c>
       <c r="I6" t="n">
-        <v>510385.5014125635</v>
+        <v>509713.5465103055</v>
       </c>
       <c r="J6" t="n">
-        <v>355658.9657293474</v>
+        <v>354987.0108270901</v>
       </c>
       <c r="K6" t="n">
-        <v>489043.4028303624</v>
+        <v>488371.4479281044</v>
       </c>
       <c r="L6" t="n">
-        <v>510385.5014125634</v>
+        <v>509713.5465103056</v>
       </c>
       <c r="M6" t="n">
-        <v>380743.1865736183</v>
+        <v>380071.2316713608</v>
       </c>
       <c r="N6" t="n">
-        <v>510385.5014125633</v>
+        <v>509713.5465103055</v>
       </c>
       <c r="O6" t="n">
-        <v>510385.5014125636</v>
+        <v>509713.5465103057</v>
       </c>
       <c r="P6" t="n">
-        <v>510385.5014125636</v>
+        <v>509713.5465103054</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435504</v>
+        <v>306.3599178435482</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712485</v>
+        <v>591.362827671246</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435504</v>
+        <v>306.3599178435482</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353621</v>
+        <v>71.38374637353837</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712485</v>
+        <v>591.362827671246</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330711</v>
+        <v>82.92444508330948</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712485</v>
+        <v>591.362827671246</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330711</v>
+        <v>82.92444508330948</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712485</v>
+        <v>591.362827671246</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330711</v>
+        <v>82.92444508330948</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>117.7290508140801</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174294</v>
+        <v>72.50477145174351</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164568</v>
+        <v>180.955037916457</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
         <v>251.2471250950627</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>357.2021000992495</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>56.3539107819795</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356723</v>
+        <v>56.6077646527612</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100821</v>
+        <v>59.24433418100851</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296167</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>45.86255623583222</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>81.56785516490595</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848767</v>
+        <v>54.30080173848796</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731827</v>
+        <v>39.90169565731861</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631662</v>
+        <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467085</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>129.1691544185872</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>48.19472341080819</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79469286292885</v>
+        <v>3.806844538051934</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,16 +27858,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>27.94024844645469</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>81.89057894745406</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>56.99416755597069</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>13.43676775329513</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672564</v>
+        <v>1.231597659672555</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212164</v>
+        <v>12.61309953212155</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452655</v>
+        <v>47.48116877452621</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676343</v>
+        <v>104.5303118676336</v>
       </c>
       <c r="K2" t="n">
-        <v>156.663840801574</v>
+        <v>156.6638408015729</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787782</v>
+        <v>194.3553476787768</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589802</v>
+        <v>216.2577725589786</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095249</v>
+        <v>219.7570494095233</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811558</v>
+        <v>207.5103501811543</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579894</v>
+        <v>177.1052829579881</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709656</v>
+        <v>132.9986917709647</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940674</v>
+        <v>77.36434648940617</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978857</v>
+        <v>28.06503166978837</v>
       </c>
       <c r="T2" t="n">
-        <v>5.39131875521665</v>
+        <v>5.391318755216611</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380507</v>
+        <v>0.09852781277380435</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540519</v>
+        <v>0.6589628421540471</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014133</v>
+        <v>6.364193765014088</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784784</v>
+        <v>22.68797504784768</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403699</v>
+        <v>62.25753764403654</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683585</v>
+        <v>106.4080480683577</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966506</v>
+        <v>143.0787521966496</v>
       </c>
       <c r="M3" t="n">
-        <v>166.966155224735</v>
+        <v>166.9661552247337</v>
       </c>
       <c r="N3" t="n">
-        <v>171.385252530233</v>
+        <v>171.3852525302318</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382932</v>
+        <v>156.7840232382921</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723821</v>
+        <v>125.8330009723812</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338389</v>
+        <v>84.11602876338328</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163492</v>
+        <v>40.91349997163462</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422109</v>
+        <v>12.239945774221</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945498</v>
+        <v>2.656082683945478</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276658</v>
+        <v>0.04335281856276627</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654187</v>
+        <v>0.5524523108654147</v>
       </c>
       <c r="H4" t="n">
-        <v>4.91180327296709</v>
+        <v>4.911803272967054</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584369</v>
+        <v>16.61374767584357</v>
       </c>
       <c r="J4" t="n">
-        <v>39.0583783781851</v>
+        <v>39.05837837818482</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509136</v>
+        <v>64.1849139350909</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448236</v>
+        <v>82.13459174448177</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502195</v>
+        <v>86.59941087502132</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361455</v>
+        <v>84.54027044361393</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395939</v>
+        <v>78.08662299395883</v>
       </c>
       <c r="P4" t="n">
-        <v>66.8165958523048</v>
+        <v>66.81659585230432</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437611</v>
+        <v>46.26034759437578</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400328</v>
+        <v>24.8402648140031</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263704</v>
+        <v>9.627737090263633</v>
       </c>
       <c r="T4" t="n">
-        <v>2.36047805551588</v>
+        <v>2.360478055515862</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084106</v>
+        <v>0.03013376241084084</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32077,7 +32077,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302182</v>
+        <v>92.58102251302107</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277582</v>
+        <v>260.7194023277571</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592414</v>
+        <v>376.2501472592401</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245399</v>
+        <v>435.4250728245383</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249181</v>
+        <v>427.6909102249165</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222144</v>
+        <v>358.2123200222129</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742024</v>
+        <v>267.6709953742012</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564208</v>
+        <v>123.0079925564199</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777913</v>
+        <v>4.866739163762693</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065781</v>
+        <v>233.0318461065773</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202356</v>
+        <v>375.3647177202346</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527166</v>
+        <v>490.5371850527154</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904532</v>
+        <v>519.385914790452</v>
       </c>
       <c r="O3" t="n">
-        <v>197.1943485033544</v>
+        <v>408.0500980705772</v>
       </c>
       <c r="P3" t="n">
-        <v>310.321362197989</v>
+        <v>310.3213621979881</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132115</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920851</v>
+        <v>41.91542210920805</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047985</v>
+        <v>109.7246170047979</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368625</v>
+        <v>126.1832878368619</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228432</v>
+        <v>128.6724428228425</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079991</v>
+        <v>102.6717509079985</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719829</v>
+        <v>64.09515511719781</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>588.3780682237987</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35661,10 +35661,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>684.4630967757926</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,19 +36597,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L26" t="n">
-        <v>485.2089366502535</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36618,7 +36618,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>588.9894927930326</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.306058528246</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>556.5257492814171</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2698609.317988902</v>
+        <v>2702014.809113351</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359937</v>
+        <v>6663746.095359933</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095103</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>296.3420890413824</v>
+        <v>369.7712425411131</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958797</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174303</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>10.1008931508062</v>
+        <v>66.70865780356726</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>102.8354606768634</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>121.3842648627956</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>66.16047425173376</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>122.3450725906909</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>301.0462453066048</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>142.6271181085172</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>37.83808333974897</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>378.9357972952567</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>49.56431688233916</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>32.63347393903376</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>15.0743711067587</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8460252842332</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292716</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>119.7717018720449</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>13.89072837997169</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247745</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7.601081015446814</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>28.87187436015506</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247745</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>163.3834414290086</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>113.2150989222328</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>218.3376902057113</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492404</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534533</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,7 +3483,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>82.55485809114292</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>239.9115438999869</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951282</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192022</v>
       </c>
       <c r="U43" t="n">
-        <v>96.06638169428761</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.55485809114292</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,10 +4194,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>178.9066238691936</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2365.451310684984</v>
+        <v>1171.814783764982</v>
       </c>
       <c r="C2" t="n">
-        <v>1996.488793744572</v>
+        <v>1171.814783764982</v>
       </c>
       <c r="D2" t="n">
-        <v>1638.223095137822</v>
+        <v>813.5490851582315</v>
       </c>
       <c r="E2" t="n">
-        <v>1252.434842539578</v>
+        <v>427.7608325599873</v>
       </c>
       <c r="F2" t="n">
-        <v>841.4489377499701</v>
+        <v>420.8153318107838</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738263</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307499</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015907</v>
+        <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060704</v>
+        <v>397.0764468060718</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927182</v>
+        <v>769.5640925927205</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689011</v>
+        <v>1200.634914689015</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811679</v>
+        <v>1624.048915811684</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633669</v>
+        <v>1978.679112633676</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054128</v>
+        <v>2243.673398054136</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684984</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684984</v>
+        <v>2292.214167804444</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684984</v>
+        <v>2109.431301222164</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.451310684984</v>
+        <v>2109.431301222164</v>
       </c>
       <c r="U2" t="n">
-        <v>2365.451310684984</v>
+        <v>1855.646326378667</v>
       </c>
       <c r="V2" t="n">
-        <v>2365.451310684984</v>
+        <v>1524.583439035096</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.451310684984</v>
+        <v>1171.814783764982</v>
       </c>
       <c r="X2" t="n">
-        <v>2365.451310684984</v>
+        <v>1171.814783764982</v>
       </c>
       <c r="Y2" t="n">
-        <v>2365.451310684984</v>
+        <v>1171.814783764982</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.6772639360072</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>757.2242346548802</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>608.2898249936289</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>449.0523699881734</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>302.5178120150584</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
-        <v>164.4526056301528</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>57.5119485882514</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J3" t="n">
-        <v>52.12709798582475</v>
+        <v>108.2048630683011</v>
       </c>
       <c r="K3" t="n">
-        <v>282.8286256313363</v>
+        <v>338.9063907138133</v>
       </c>
       <c r="L3" t="n">
-        <v>654.4396961743685</v>
+        <v>501.7702691852941</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.071509376557</v>
+        <v>987.4020823874833</v>
       </c>
       <c r="N3" t="n">
-        <v>1654.263565019104</v>
+        <v>1501.594138030032</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.233162108976</v>
+        <v>1905.563735119904</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.451310684984</v>
+        <v>2212.781883695913</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684984</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.451310684984</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="S3" t="n">
-        <v>2204.397547725775</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="T3" t="n">
-        <v>2004.893864886506</v>
+        <v>2165.947627845723</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.893864886506</v>
+        <v>2062.073425141821</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.741756654764</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.504399926562</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.652899721029</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.892600956075</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.8390752546173</v>
+        <v>366.3618485539425</v>
       </c>
       <c r="C4" t="n">
-        <v>492.2287067063389</v>
+        <v>197.4256656260356</v>
       </c>
       <c r="D4" t="n">
-        <v>342.1120672940032</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="E4" t="n">
-        <v>194.1989737116101</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369968</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181566</v>
+        <v>88.8052941018162</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365656</v>
+        <v>197.4326649365666</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950588</v>
+        <v>322.3541198950604</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896729</v>
+        <v>449.739838289675</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885915</v>
+        <v>551.3848716885941</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546173</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546173</v>
+        <v>548.0103133841822</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097701</v>
+        <v>588.5097680147103</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>177.5238632251027</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.0636002298164</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>348.1274173019095</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>198.0107778895738</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>92.16326802213109</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.683768698139</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="C8" t="n">
-        <v>1194.683768698139</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="D8" t="n">
-        <v>836.4180700913882</v>
+        <v>1381.442801724941</v>
       </c>
       <c r="E8" t="n">
-        <v>450.629817493144</v>
+        <v>995.6545491266968</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>584.6686443370893</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.28885893503</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.82310067395</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>223.2349977106392</v>
       </c>
       <c r="C10" t="n">
-        <v>338.4002221349972</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>188.2835827226615</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>223.2349977106392</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5044,16 +5044,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1034.340101969334</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5074,13 +5074,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5114,16 +5114,16 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>854.4007383484569</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C13" t="n">
-        <v>854.4007383484569</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>110.7876719299689</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>110.7876719299689</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1800.943440565074</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1546.258952359187</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1256.841782322227</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1256.841782322227</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>1036.049203178697</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001597</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089269</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5287,43 +5287,43 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4299.260038026375</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>264.4972173763014</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>362.7597382730063</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1439.029470490936</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1184.344982285049</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>894.9278122480886</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X16" t="n">
-        <v>666.9382613500712</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y16" t="n">
-        <v>446.1456822065411</v>
+        <v>362.7597382730063</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1070.832524924162</v>
+        <v>888.4135721382793</v>
       </c>
       <c r="L17" t="n">
-        <v>1521.86673817257</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M17" t="n">
-        <v>2055.398642844495</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N17" t="n">
-        <v>2602.177459903277</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5594,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5779,25 +5779,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,64 +5807,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.179956650002</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.413341219528</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.310474345171</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.625986139284</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>872.2088161023238</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>644.2192652043065</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>423.4266860607763</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5968,73 +5968,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.99303492678</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6068,25 +6068,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>822.6299143867971</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>657.5961351655762</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1453.060509258584</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1453.060509258584</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>1225.070958360567</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1004.278379217037</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,19 +6226,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1002.806306216376</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.840519464784</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6296,7 +6296,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,25 +6305,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>307.2453974100822</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>307.2453974100822</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>307.2453974100822</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>307.2453974100822</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,19 +6399,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
         <v>1542.890966501056</v>
@@ -6420,16 +6420,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X28" t="n">
-        <v>709.6864413838521</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y28" t="n">
-        <v>488.8938622403219</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="29">
@@ -6457,25 +6457,25 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.5338801960603</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1454.284003269148</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1454.284003269148</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1199.599515063261</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W31" t="n">
-        <v>910.1823450263</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X31" t="n">
-        <v>910.1823450263</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y31" t="n">
-        <v>910.1823450263</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998329</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,19 +6937,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6964,10 +6964,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,28 +7016,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1170.39935408009</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>880.9821840431298</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>652.9926331451124</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>432.2000540015823</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,19 +7174,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
         <v>3482.142110232732</v>
@@ -7204,22 +7204,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W40" t="n">
-        <v>666.9382613500712</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X40" t="n">
-        <v>666.9382613500712</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y40" t="n">
-        <v>446.1456822065411</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,25 +7411,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3484.372139114997</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3987.344609994334</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,28 +7490,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1356.023760072435</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1101.339271866548</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>811.9221018295875</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>811.9221018295875</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>591.1295226860574</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3641.993171584093</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>432.2000540015823</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E46" t="n">
         <v>263.2638710736754</v>
@@ -7797,19 +7797,19 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1253.788099626699</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>964.3709295897388</v>
+        <v>1010.075734109952</v>
       </c>
       <c r="X46" t="n">
-        <v>736.3813786917215</v>
+        <v>782.0861832119344</v>
       </c>
       <c r="Y46" t="n">
-        <v>515.5887995481913</v>
+        <v>561.2936040684043</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>69.44682818639284</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>159.9845957362347</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.86574532263823</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>251.1867816683982</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>173.2204606877393</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>288.0478149561032</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>374.1693948021965</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,19 +9877,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>219.3344627260164</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11065,22 +11065,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>23.80814351663764</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>160.3329896347539</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>130.3466769161726</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23466,13 +23466,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>132.3658129213797</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>46.25410638698328</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>272.3211098256412</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>159.645740083181</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>160.8971509712868</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.863379669619235</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>32.20594910069845</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.211259070457857</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270133</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>169.5827852326851</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>46.61145443660408</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>16.14213605696662</v>
       </c>
     </row>
     <row r="41">
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>16.14213605696699</v>
       </c>
       <c r="U43" t="n">
-        <v>190.1454565113253</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.27712209079438</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>107.6163744673974</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782224.3205084838</v>
+        <v>782224.3205084837</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782224.3205084838</v>
+        <v>782224.3205084839</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782224.3205084839</v>
+        <v>782224.3205084838</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782224.3205084839</v>
+        <v>782224.3205084838</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782224.3205084837</v>
+        <v>782224.3205084838</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782224.3205084838</v>
+        <v>782224.3205084839</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
@@ -26322,40 +26322,40 @@
         <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="F2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191728</v>
       </c>
       <c r="G2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191726</v>
       </c>
       <c r="H2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191726</v>
       </c>
       <c r="I2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="J2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="K2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191725</v>
       </c>
       <c r="L2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191727</v>
       </c>
       <c r="M2" t="n">
-        <v>635330.859019173</v>
+        <v>635330.8590191725</v>
       </c>
       <c r="N2" t="n">
-        <v>635330.8590191728</v>
+        <v>635330.8590191734</v>
       </c>
       <c r="O2" t="n">
-        <v>635330.8590191731</v>
+        <v>635330.8590191726</v>
       </c>
       <c r="P2" t="n">
-        <v>635330.8590191727</v>
+        <v>635330.8590191726</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.684410646</v>
+        <v>493391.6844106485</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957447092</v>
+        <v>91792.63957446867</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832155</v>
+        <v>154726.535683216</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220119</v>
+        <v>21342.0985822007</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760462</v>
+        <v>235704.9591760456</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289565</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289569</v>
       </c>
       <c r="G4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289577</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140112</v>
+        <v>76261.10613140126</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-148524.333826667</v>
+        <v>-148524.3338266689</v>
       </c>
       <c r="C6" t="n">
-        <v>272259.2827905128</v>
+        <v>272259.2827905151</v>
       </c>
       <c r="D6" t="n">
         <v>364051.9223649839</v>
       </c>
       <c r="E6" t="n">
-        <v>-217663.8674831009</v>
+        <v>-217059.1080710689</v>
       </c>
       <c r="F6" t="n">
-        <v>509713.5465103056</v>
+        <v>510318.3059223377</v>
       </c>
       <c r="G6" t="n">
-        <v>509713.5465103055</v>
+        <v>510318.3059223377</v>
       </c>
       <c r="H6" t="n">
-        <v>509713.5465103055</v>
+        <v>510318.3059223375</v>
       </c>
       <c r="I6" t="n">
-        <v>509713.5465103055</v>
+        <v>510318.3059223376</v>
       </c>
       <c r="J6" t="n">
-        <v>354987.0108270901</v>
+        <v>355591.7702391214</v>
       </c>
       <c r="K6" t="n">
-        <v>488371.4479281044</v>
+        <v>488976.2073401366</v>
       </c>
       <c r="L6" t="n">
-        <v>509713.5465103056</v>
+        <v>510318.3059223375</v>
       </c>
       <c r="M6" t="n">
-        <v>380071.2316713608</v>
+        <v>380675.9910833925</v>
       </c>
       <c r="N6" t="n">
-        <v>509713.5465103055</v>
+        <v>510318.3059223383</v>
       </c>
       <c r="O6" t="n">
-        <v>509713.5465103057</v>
+        <v>510318.3059223375</v>
       </c>
       <c r="P6" t="n">
-        <v>509713.5465103054</v>
+        <v>510318.3059223375</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435482</v>
+        <v>306.3599178435501</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.362827671246</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435482</v>
+        <v>306.3599178435501</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353837</v>
+        <v>71.38374637353661</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.362827671246</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330755</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.362827671246</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330755</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.362827671246</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330948</v>
+        <v>82.92444508330755</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>117.7290508140801</v>
+        <v>44.29989731434938</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174351</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.955037916457</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>56.6077646527612</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100851</v>
+        <v>59.24433418100826</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>123.0625685855486</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>45.86255623583222</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
@@ -27557,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848796</v>
+        <v>54.30080173848771</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731861</v>
+        <v>39.90169565731833</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631664</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>152.424179100361</v>
       </c>
     </row>
     <row r="5">
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>291.4390974301041</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>48.19472341080819</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.806844538051934</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>118.3328055020462</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>27.94024844645469</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>364.2198531384558</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>134.6133471595941</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.43676775329513</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-1.306804090227121e-12</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.07742388135314e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,19 +28377,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28620,19 +28620,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.159498198844082e-14</v>
       </c>
     </row>
     <row r="18">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672555</v>
+        <v>1.231597659672562</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212155</v>
+        <v>12.61309953212163</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452621</v>
+        <v>47.4811687745265</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676336</v>
+        <v>104.5303118676342</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015729</v>
+        <v>156.6638408015738</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787768</v>
+        <v>194.355347678778</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589786</v>
+        <v>216.25777255898</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095233</v>
+        <v>219.7570494095246</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811543</v>
+        <v>207.5103501811556</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579881</v>
+        <v>177.1052829579892</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709647</v>
+        <v>132.9986917709655</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940617</v>
+        <v>77.36434648940666</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978837</v>
+        <v>28.06503166978854</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216611</v>
+        <v>5.391318755216644</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380435</v>
+        <v>0.09852781277380496</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540471</v>
+        <v>0.6589628421540511</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014088</v>
+        <v>6.364193765014126</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784768</v>
+        <v>22.68797504784781</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403654</v>
+        <v>62.25753764403692</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683577</v>
+        <v>106.4080480683583</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966496</v>
+        <v>143.0787521966505</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247337</v>
+        <v>166.9661552247348</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302318</v>
+        <v>171.3852525302328</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382921</v>
+        <v>156.784023238293</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723812</v>
+        <v>125.8330009723819</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338328</v>
+        <v>84.1160287633838</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163462</v>
+        <v>40.91349997163488</v>
       </c>
       <c r="S3" t="n">
-        <v>12.239945774221</v>
+        <v>12.23994577422107</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945478</v>
+        <v>2.656082683945495</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276627</v>
+        <v>0.04335281856276654</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654147</v>
+        <v>0.5524523108654181</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967054</v>
+        <v>4.911803272967084</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584357</v>
+        <v>16.61374767584367</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818482</v>
+        <v>39.05837837818506</v>
       </c>
       <c r="K4" t="n">
-        <v>64.1849139350909</v>
+        <v>64.18491393509129</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448177</v>
+        <v>82.13459174448226</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502132</v>
+        <v>86.59941087502185</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361393</v>
+        <v>84.54027044361445</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395883</v>
+        <v>78.08662299395931</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230432</v>
+        <v>66.81659585230473</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437578</v>
+        <v>46.26034759437606</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140031</v>
+        <v>24.84026481400325</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263633</v>
+        <v>9.627737090263693</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515862</v>
+        <v>2.360478055515877</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084084</v>
+        <v>0.03013376241084102</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302107</v>
+        <v>92.58102251302171</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277571</v>
+        <v>260.719402327758</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592401</v>
+        <v>376.2501472592412</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245383</v>
+        <v>435.4250728245397</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249165</v>
+        <v>427.6909102249178</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222129</v>
+        <v>358.2123200222142</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742012</v>
+        <v>267.6709953742023</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564199</v>
+        <v>123.0079925564207</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.866739163762693</v>
+        <v>61.51094631777907</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065773</v>
+        <v>233.0318461065779</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202346</v>
+        <v>164.508968153011</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527154</v>
+        <v>490.5371850527164</v>
       </c>
       <c r="N3" t="n">
-        <v>519.385914790452</v>
+        <v>519.3859147904531</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705772</v>
+        <v>408.0500980705781</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979881</v>
+        <v>310.3213621979888</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.2115424132114</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920805</v>
+        <v>41.91542210920844</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047979</v>
+        <v>109.7246170047984</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368619</v>
+        <v>126.1832878368624</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228425</v>
+        <v>128.672442822843</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079985</v>
+        <v>102.671750907999</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719781</v>
+        <v>64.09515511719822</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>588.3780682237987</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35655,22 +35655,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>424.0147654914588</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>625.2391015115037</v>
+        <v>440.9775330409156</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>882.2223956904155</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>556.5257492814169</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>422.5701297360093</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>559.0949758541256</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
